--- a/biology/Zoologie/Elzunia_pavonii/Elzunia_pavonii.xlsx
+++ b/biology/Zoologie/Elzunia_pavonii/Elzunia_pavonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elzunia pavonii est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Elzunia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elzunia pavonii a été décrit par Arthur Gardiner Butler en 1873[1].
-Noms vernaculaires
-Elzunia pavonii se nomme Pavoni's Clearwing  en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia pavonii a été décrit par Arthur Gardiner Butler en 1873.
 </t>
         </is>
       </c>
@@ -541,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elzunia pavoniia est un papillon d'une envergure d'environ 85 mm aux ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave[3].
-Les ailes sont de couleur marron foncé avec une ligne submarginale de petits points blancs, aux ailes antérieures quelques taches blanches et aux ailes postérieures une bande blanche partant du bord interne près de la base.
-Le revers est orné d'une bande submarginale orange entre deux lignes de petits points blancs et en plus aux ailes postérieures d'une ligne de points orange avant la bande blanche.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia pavonii se nomme Pavoni's Clearwing  en anglais.
 </t>
         </is>
       </c>
@@ -574,12 +590,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia pavoniia est un papillon d'une envergure d'environ 85 mm aux ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave.
+Les ailes sont de couleur marron foncé avec une ligne submarginale de petits points blancs, aux ailes antérieures quelques taches blanches et aux ailes postérieures une bande blanche partant du bord interne près de la base.
+Le revers est orné d'une bande submarginale orange entre deux lignes de petits points blancs et en plus aux ailes postérieures d'une ligne de points orange avant la bande blanche.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +628,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elzunia pavonii est présent en Colombie, en Équateur et au Pérou[1],[3],[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzunia pavonii est présent en Colombie, en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elzunia_pavonii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elzunia_pavonii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Elzunia pavonii, sur Wikimedia CommonsElzunia pavonii, sur Wikispecies
 </t>
